--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Property</t>
   </si>
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -359,7 +359,9 @@
       <c r="A6" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="B6" s="2"/>
+      <c r="B6" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
+++ b/fhir/CodeSystem-urn-oid-1.2.208.184.100.1.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
